--- a/biology/Botanique/Henry_de_Magneville/Henry_de_Magneville.xlsx
+++ b/biology/Botanique/Henry_de_Magneville/Henry_de_Magneville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry David Désiré de Magneville, né à Caen le 8 décembre 1771 et mort dans son château de Lébisey, à Hérouville-Saint-Clair le 22 juillet 1847, est un géologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d’une famille dont les ancêtres avaient accompagné Guillaume le Conquérant à la conquête de l'Angleterre et qui devinrent comtes d'Essex, Magneville s'occupa avec beaucoup de zèle d'horticulture, de botanique, de chimie et de géologie.
 Il est à l'origine de la fondation, à ses frais, du muséum d'histoire naturelle de sa ville natale en 1823, ainsi que d'améliorations notables au Jardin des plantes.
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Premier mémoire sur un calcaire renfermant une grande quantité de polypiers qui fait partie des terrains secondaires du département du Calvados, communiqué à l’Académie de Caen, dans sa séance du mois de déc. 1820, Société linnéenne du Calvados, 1824, p. 219-248.
 Examen géognostique des buttes qui séparent la plaine de Caen de la vallée de la Dive, Académie de Caen, 1823 et 1824, p. 86-95.
